--- a/Model/BertGCN/BertGCN.xlsx
+++ b/Model/BertGCN/BertGCN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="10020"/>
+    <workbookView windowWidth="28785" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="78">
+  <si>
+    <t>邻接矩阵</t>
+  </si>
   <si>
     <t>词：努</t>
   </si>
@@ -102,6 +105,9 @@
     <t>token</t>
   </si>
   <si>
+    <t>输入特征</t>
+  </si>
+  <si>
     <t>作者2位，句子一共2句，词共5个，维度总计为2+2+5=9，故设计9*k（k为BERT编码维度）矩阵</t>
   </si>
   <si>
@@ -123,6 +129,9 @@
     <t>BERT编码维度6</t>
   </si>
   <si>
+    <t>BERT编码维度7</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -132,7 +141,19 @@
     <t>行对应作者：1</t>
   </si>
   <si>
-    <t>全是0</t>
+    <r>
+      <t>全是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1(不利用作者的特征，只利用连接关系)</t>
+    </r>
   </si>
   <si>
     <t>行对应作者：2</t>
@@ -141,18 +162,33 @@
     <t>行对应句子1</t>
   </si>
   <si>
-    <t>句子1的BERT编码</t>
+    <t>句子1的BERT（全句池化）编码</t>
   </si>
   <si>
     <t>行对应句子2</t>
   </si>
   <si>
-    <t>句子2的BERT编码</t>
+    <t>句子2的BERT（全句池化）编码</t>
   </si>
   <si>
     <t>行对应词：我</t>
   </si>
   <si>
+    <r>
+      <t>全是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1(不利用词本身的特征，只利用连接关系)</t>
+    </r>
+  </si>
+  <si>
     <t>行对应词：喜欢</t>
   </si>
   <si>
@@ -165,13 +201,16 @@
     <t>行对应词：下班</t>
   </si>
   <si>
-    <t>标签对应作者1</t>
-  </si>
-  <si>
-    <t>标签对应作者2</t>
-  </si>
-  <si>
-    <t>全是1</t>
+    <t>针对同图中不同作者分不同batch输入的解决方法</t>
+  </si>
+  <si>
+    <t>标签对应作者1的Batch</t>
+  </si>
+  <si>
+    <t>标签对应作者2的Batch</t>
+  </si>
+  <si>
+    <t>标签对应作者3的Batch</t>
   </si>
   <si>
     <t>行对应作者：3</t>
@@ -254,8 +293,24 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -608,7 +663,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -617,13 +672,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -638,7 +708,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -653,7 +723,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -671,21 +741,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -702,6 +757,32 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -857,10 +938,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,160 +950,214 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1030,25 +1165,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1372,334 +1525,336 @@
   <sheetPr/>
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37:J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.6296296296296" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="15.6333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="15.7777777777778" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="15.775" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="50" customHeight="1" spans="1:11">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:11">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="50" customHeight="1" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="50" customHeight="1" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="50" customHeight="1" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="50" customHeight="1" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="50" customHeight="1" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="50" customHeight="1" spans="1:9">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="50" customHeight="1" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="40" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="50" customHeight="1" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="50" customHeight="1" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="50" customHeight="1" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="50" customHeight="1" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="50" customHeight="1" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="50" customHeight="1" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="50" customHeight="1" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1720,407 +1875,604 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" ht="15.15" spans="2:9">
-      <c r="B18" s="1" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:10">
+      <c r="A18" s="9"/>
+      <c r="B18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="C18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="D18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="E18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="F18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="G18" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
+      <c r="H18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="I18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
+      <c r="J18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" ht="15.15" spans="1:9">
-      <c r="A22" s="1" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
+      <c r="B21" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="32"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="32"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="34"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:10">
+      <c r="A33" s="9"/>
+      <c r="B33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="33"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="24"/>
+      <c r="J37" s="36"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="36"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="36"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="36"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="36"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="36"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="24"/>
+      <c r="J43" s="36"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="36"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="36"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="36"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="36"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="36"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="23"/>
+      <c r="J49" s="37"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="37"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="37"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="25"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="37"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="25"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="37"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="25"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="37"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="33"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="12"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="12"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="12"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="12"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="12"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="33"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="26"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="24">
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="D49:D54"/>
-    <mergeCell ref="B23:I27"/>
-    <mergeCell ref="B19:I20"/>
-    <mergeCell ref="B34:D36"/>
-    <mergeCell ref="B55:D57"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B19:J20"/>
+    <mergeCell ref="B23:J27"/>
+    <mergeCell ref="B34:J36"/>
+    <mergeCell ref="B37:D42"/>
+    <mergeCell ref="E37:G42"/>
+    <mergeCell ref="H37:J42"/>
+    <mergeCell ref="B43:D48"/>
+    <mergeCell ref="E43:G48"/>
+    <mergeCell ref="H43:J48"/>
+    <mergeCell ref="B49:D54"/>
+    <mergeCell ref="E49:G54"/>
+    <mergeCell ref="H49:J54"/>
+    <mergeCell ref="B55:J57"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
